--- a/data/outputs/OR_elsevier/7.xlsx
+++ b/data/outputs/OR_elsevier/7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS117"/>
+  <dimension ref="A1:BU117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84943801062</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>5671</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84944398654</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,6 +1401,12 @@
           <t>2-s2.0-84945248123</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1612,12 @@
           <t>2-s2.0-84945962509</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1337</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1791,6 +1825,12 @@
           <t>2-s2.0-84944406910</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1670</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2014,6 +2054,12 @@
           <t>2-s2.0-84945161749</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3827</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2229,6 +2275,12 @@
           <t>2-s2.0-84948958192</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>3104</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2450,6 +2502,12 @@
           <t>2-s2.0-84939475915</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2377</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2659,6 +2717,12 @@
           <t>2-s2.0-84939864167</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>6513</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2874,6 +2938,12 @@
           <t>2-s2.0-84939783750</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>3103</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3087,6 +3157,12 @@
           <t>2-s2.0-84939800084</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1913</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3300,6 +3376,12 @@
           <t>2-s2.0-84940421549</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>4439</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3523,6 +3605,12 @@
           <t>2-s2.0-84940403716</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1476</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3748,6 +3836,12 @@
           <t>2-s2.0-84940648661</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3663</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3955,6 +4049,12 @@
           <t>2-s2.0-84941124606</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>796</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4168,6 +4268,12 @@
           <t>2-s2.0-84941280475</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1771</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4377,6 +4483,12 @@
           <t>2-s2.0-84941366874</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2873</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4582,6 +4694,12 @@
           <t>2-s2.0-84942097122</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>960</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4905,12 @@
           <t>2-s2.0-84942513106</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>11183</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5004,6 +5128,12 @@
           <t>2-s2.0-84942890792</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1844</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5225,6 +5355,12 @@
           <t>2-s2.0-84939799098</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2356</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5446,6 +5582,12 @@
           <t>2-s2.0-84940388846</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>8029</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5663,6 +5805,12 @@
           <t>2-s2.0-84940650048</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2081</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5880,6 +6028,12 @@
           <t>2-s2.0-84942520878</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2223</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6095,6 +6249,12 @@
           <t>2-s2.0-84938893686</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6306,6 +6466,12 @@
           <t>2-s2.0-84939787687</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1115</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6525,6 +6691,12 @@
           <t>2-s2.0-84939784031</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1465</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6746,6 +6918,12 @@
           <t>2-s2.0-84940703364</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6953,6 +7131,12 @@
           <t>2-s2.0-84944146203</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1687</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7162,6 +7346,12 @@
           <t>2-s2.0-84944146833</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3918</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7379,6 +7569,12 @@
           <t>2-s2.0-84944169177</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1736</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7592,6 +7788,12 @@
           <t>2-s2.0-84944161767</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2869</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7812,6 +8014,12 @@
         <is>
           <t>2-s2.0-84939479953</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>1796</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -8010,6 +8218,12 @@
           <t>2-s2.0-84944147490</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>568</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8221,6 +8435,12 @@
           <t>2-s2.0-84944152384</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>4490</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8426,6 +8646,12 @@
           <t>2-s2.0-84930194875</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1885</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8647,6 +8873,12 @@
           <t>2-s2.0-84930960145</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>3080</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8856,6 +9088,12 @@
           <t>2-s2.0-84930663486</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1617</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9069,6 +9307,12 @@
           <t>2-s2.0-84930619670</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2482</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9280,6 +9524,12 @@
           <t>2-s2.0-84930943062</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3153</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9493,6 +9743,12 @@
           <t>2-s2.0-84931287840</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>7023</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9708,6 +9964,12 @@
           <t>2-s2.0-84934919917</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2861</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9913,6 +10175,12 @@
           <t>2-s2.0-84933046707</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>2151</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10134,6 +10402,12 @@
           <t>2-s2.0-84937561426</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1011</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10349,6 +10623,12 @@
           <t>2-s2.0-84937392454</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>20125</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10570,6 +10850,12 @@
           <t>2-s2.0-84938251278</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1960</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10792,6 +11078,12 @@
         <is>
           <t>2-s2.0-84930938768</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>2071</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -10986,6 +11278,12 @@
           <t>2-s2.0-84936986328</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>974</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11201,6 +11499,12 @@
           <t>2-s2.0-84938216054</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2138</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11414,6 +11718,12 @@
           <t>2-s2.0-84938209578</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2217</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11627,6 +11937,12 @@
           <t>2-s2.0-84938211106</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>4991</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11828,6 +12144,12 @@
           <t>2-s2.0-84938202751</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1083</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12041,6 +12363,12 @@
           <t>2-s2.0-84938203055</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1643</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12250,6 +12578,12 @@
           <t>2-s2.0-84938212754</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>4554</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12471,6 +12805,12 @@
           <t>2-s2.0-84938209627</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>4103</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12680,6 +13020,12 @@
           <t>2-s2.0-84938215523</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1721</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12901,6 +13247,12 @@
           <t>2-s2.0-84929461044</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13116,6 +13468,12 @@
           <t>2-s2.0-84929152385</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>4405</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13321,6 +13679,12 @@
           <t>2-s2.0-84929630376</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>3034</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13538,6 +13902,12 @@
           <t>2-s2.0-84929619487</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1906</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13751,6 +14121,12 @@
           <t>2-s2.0-84928888603</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>4090</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13974,6 +14350,12 @@
           <t>2-s2.0-84929994211</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>5908</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14179,6 +14561,12 @@
           <t>2-s2.0-84926511405</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14384,6 +14772,12 @@
           <t>2-s2.0-84927644066</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1633</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14605,6 +14999,12 @@
           <t>2-s2.0-84928107603</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>895</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14826,6 +15226,12 @@
           <t>2-s2.0-84928401092</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>898</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15033,6 +15439,12 @@
           <t>2-s2.0-84928474809</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>5509</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15250,6 +15662,12 @@
           <t>2-s2.0-84929492695</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15465,6 +15883,12 @@
           <t>2-s2.0-84928898510</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2192</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15678,6 +16102,12 @@
           <t>2-s2.0-84928947874</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>889</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15901,6 +16331,12 @@
           <t>2-s2.0-84927631075</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>20950</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16122,6 +16558,12 @@
           <t>2-s2.0-84928155242</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1576</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16343,6 +16785,12 @@
           <t>2-s2.0-84928939574</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>3094</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16558,6 +17006,12 @@
           <t>2-s2.0-84928949248</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3004</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16771,6 +17225,12 @@
           <t>2-s2.0-84924334083</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2701</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16984,6 +17444,12 @@
           <t>2-s2.0-84924565978</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17195,6 +17661,12 @@
           <t>2-s2.0-84925358693</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17400,6 +17872,12 @@
           <t>2-s2.0-84925799385</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>2175</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17609,6 +18087,12 @@
           <t>2-s2.0-84925729055</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1147</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17816,6 +18300,12 @@
           <t>2-s2.0-84925706078</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2350</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18021,6 +18511,12 @@
           <t>2-s2.0-84961290302</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>4310</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18226,6 +18722,12 @@
           <t>2-s2.0-84961291287</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>736</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18433,6 +18935,12 @@
           <t>2-s2.0-84924752597</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>4195</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18656,6 +19164,12 @@
           <t>2-s2.0-84923288269</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>2637</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18879,6 +19393,12 @@
           <t>2-s2.0-84923226741</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2184</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19100,6 +19620,12 @@
           <t>2-s2.0-84923222113</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>823</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19317,6 +19843,12 @@
           <t>2-s2.0-84925340790</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1470</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19522,6 +20054,12 @@
           <t>2-s2.0-84924175893</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1722</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19735,6 +20273,12 @@
           <t>2-s2.0-84979838202</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>3281</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19956,6 +20500,12 @@
           <t>2-s2.0-84923230092</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>2343</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20165,6 +20715,12 @@
           <t>2-s2.0-84925299013</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>3372</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20380,6 +20936,12 @@
           <t>2-s2.0-84923583298</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>2055</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20593,6 +21155,12 @@
           <t>2-s2.0-84921633433</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2141</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20808,6 +21376,12 @@
           <t>2-s2.0-84921783865</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2298</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21021,6 +21595,12 @@
           <t>2-s2.0-84922349173</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>2413</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21226,6 +21806,12 @@
           <t>2-s2.0-84922530388</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>5224</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21431,6 +22017,12 @@
           <t>2-s2.0-84922880652</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>5337</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21642,6 +22234,12 @@
           <t>2-s2.0-84923250552</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1901</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21849,6 +22447,12 @@
           <t>2-s2.0-84922365893</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>2730</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22066,6 +22670,12 @@
           <t>2-s2.0-84949122078</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1555</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22281,6 +22891,12 @@
           <t>2-s2.0-84949116316</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>4330</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22486,6 +23102,12 @@
           <t>2-s2.0-84919741410</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>4927</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22693,6 +23315,12 @@
           <t>2-s2.0-84919779817</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>2817</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22902,6 +23530,12 @@
           <t>2-s2.0-84920266312</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>3393</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23107,6 +23741,12 @@
           <t>2-s2.0-84920717843</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>4025</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23322,6 +23962,12 @@
           <t>2-s2.0-84919775427</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>6336</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23549,6 +24195,12 @@
           <t>2-s2.0-84920701381</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>5355</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23760,6 +24412,12 @@
           <t>2-s2.0-84917690631</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1779</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23969,6 +24627,12 @@
           <t>2-s2.0-84917694562</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24190,6 +24854,12 @@
           <t>2-s2.0-84920447561</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>1285</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24391,6 +25061,12 @@
       <c r="BQ112" t="inlineStr"/>
       <c r="BR112" t="inlineStr"/>
       <c r="BS112" t="inlineStr"/>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24614,6 +25290,12 @@
           <t>2-s2.0-84920488661</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>5064</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24841,6 +25523,12 @@
           <t>2-s2.0-84920505216</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>3945</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25060,6 +25748,12 @@
           <t>2-s2.0-84919484959</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>10461</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25273,6 +25967,12 @@
           <t>2-s2.0-84920502442</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>2001</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25482,6 +26182,12 @@
           <t>2-s2.0-84920179965</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>2559</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
